--- a/User Manual/MENU_SRSMART_APPS_01.01.02.xlsx
+++ b/User Manual/MENU_SRSMART_APPS_01.01.02.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14640"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="25600" windowHeight="14660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SR Keeler V3.0" sheetId="9" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>Apple</t>
   </si>
   <si>
-    <t>This option allows user to view full information about various SR Products. How to use, installation process, FAQs, Error Codes etc.</t>
-  </si>
-  <si>
     <t>https://github.com/DelphianSystems/SecuRemote/blob/master/SR Smart Help/</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>1.2.7.     Sound Details</t>
   </si>
   <si>
-    <t>1.6.1.     Serail #</t>
-  </si>
-  <si>
     <t>1.6.2.     Manufacturer</t>
   </si>
   <si>
@@ -255,9 +249,6 @@
     <t>Allows user to view operations performed to Keeler SR device. It will show last 10 operations performed by user. Admin login information is required to view this page.</t>
   </si>
   <si>
-    <t>Allows user to delete SR Device from SRP Account.It will require admin credentials.</t>
-  </si>
-  <si>
     <t>Version #</t>
   </si>
   <si>
@@ -280,6 +271,68 @@
   </si>
   <si>
     <t>1.1.3.     Lan Scan Timer</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> va</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ious SR Device within your sr account. Select any of the device to operate.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -300,69 +353,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>llows user to upgrade SR Device with latest firmware from SR Server.It will require admin credentials.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ist</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> out</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> va</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ious SR Device within your sr account. Select any of the device to operate.</t>
+      <t>llows user to add new SR Device in his/her mobile device.</t>
     </r>
   </si>
   <si>
@@ -384,7 +375,51 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>llows user to add new SR Device in his/her mobile device.</t>
+      <t>llows to find out the current status of all SR Devices listed in mobile device.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>List out various</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> users within your sr account. Select any of the user to see the detail.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hows the current build version of the app</t>
     </r>
   </si>
   <si>
@@ -406,30 +441,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>llows to find out the current status of all SR Devices listed in mobile device.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>List out various</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> users within your sr account. Select any of the user to see the detail.</t>
-    </r>
+      <t>llows user to debug and diagnostics issue with SR Device. Use Developer PIN - "123456"</t>
+    </r>
+  </si>
+  <si>
+    <t>Allows user to view battery information. It includes battery type, status, total hours used, voltage and operations performed. It shows current and previous battery both information.</t>
+  </si>
+  <si>
+    <t>Allows user to perform diagnostic of SR Device. It shows SR Device is SR Network or not, Users added in the device, Errors generated on the device.</t>
   </si>
   <si>
     <r>
@@ -450,8 +469,180 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>llows user to delete user from sr account.It will require admin credentials.</t>
-    </r>
+      <t>llows user to send log file to developer so user's issue will be identified easily and will be resolved.</t>
+    </r>
+  </si>
+  <si>
+    <t>Allows user to configure camera settings. User needs to select  Camera Type(Foscom or Dlink), Camera Model(FI8910W or FI8918W), Host Name, Port Name, Username and Password.</t>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>llows user to clear or dele</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e device log saved in mobile device.</t>
+    </r>
+  </si>
+  <si>
+    <t>Allows user to view information about new features added, enhancements and bugs fixed in the latest version.</t>
+  </si>
+  <si>
+    <t>1.1.1.     Motion Sensor</t>
+  </si>
+  <si>
+    <t>1.1.2.     Exterior Button</t>
+  </si>
+  <si>
+    <t>1.2.3.     Auto Connect</t>
+  </si>
+  <si>
+    <t>1.2.4.     Proximity Security</t>
+  </si>
+  <si>
+    <t>1.2.5.     Notification</t>
+  </si>
+  <si>
+    <t>1.2.6.     User PIN</t>
+  </si>
+  <si>
+    <t>1.2.7.     Set User PIN</t>
+  </si>
+  <si>
+    <t>1.2.8.     Sound Notification</t>
+  </si>
+  <si>
+    <t>1.2.9.     Sound Details</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Allows the user </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to enable or disable proximity security feature of RAS SR device. When user’s smartphone and RAS SR device are within radius of up to 5 feet, it triggers an action/operation and notification event automatically. The remote proximity feature is available for smartphone equipped with BLE Device only.</t>
+    </r>
+  </si>
+  <si>
+    <t>Allows the user to enable or disable auto connect feature of RAS SR device. When user’s smartphone enters the range or proximity of RAS SR Device, it will automatically connect with RAS SR Device.</t>
+  </si>
+  <si>
+    <t>1.1.     SR Smart App Settings</t>
+  </si>
+  <si>
+    <t>1.1.1.     SR Device Name</t>
+  </si>
+  <si>
+    <t>1.1.2.     Set Location</t>
+  </si>
+  <si>
+    <t>1.1.3.     Notification</t>
+  </si>
+  <si>
+    <t>1.1.4.     User PIN</t>
+  </si>
+  <si>
+    <t>1.1.5.     Set User PIN</t>
+  </si>
+  <si>
+    <t>1.1.6.     Sound Notification</t>
+  </si>
+  <si>
+    <t>1.1.7.     Sound Details</t>
+  </si>
+  <si>
+    <t>1.2.     Audit Trail</t>
+  </si>
+  <si>
+    <t>1.3.     Delete SR Device</t>
+  </si>
+  <si>
+    <t>1.4.     Login/Logout</t>
+  </si>
+  <si>
+    <t>1.5.     About SR Device</t>
+  </si>
+  <si>
+    <t>1.5.2.     Manufacturer</t>
+  </si>
+  <si>
+    <t>1.5.3.     Model #</t>
+  </si>
+  <si>
+    <t>1.5.4.     Hardware Revision</t>
+  </si>
+  <si>
+    <t>1.5.5.     Software Revision</t>
+  </si>
+  <si>
+    <t>1.5.6.     Firmware Upgrade</t>
+  </si>
+  <si>
+    <t>4.5.2.     Device Diagnostics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial Draft with SR Keeler 3.0 menu options </t>
+  </si>
+  <si>
+    <t>Added SR RAS 2.0 and GDO menu options. Version control detail and format of the document is changed</t>
+  </si>
+  <si>
+    <t>Allows user to enable or disable motion sensor feature of RAS SR device. When Motion is detected, it disables usage of “Smart Button - Exterior” by any authorized\unauthorized user, if it senses any motion in the interior side of the RAS SR Device. To change the Motion setting, the user must be within Bluetooth range of the RAS SR Device.
+Note: An authorized user\Admin can operate the RAS SR Device using SR Smart App, when the Motion Sensor disables “Smart Button - Exterior.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Allows </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>user to enable or disable motion sensor feature of RAS SR device. When Motion is detected, it disables usage of “Smart Button - Exterior” by any authorized\unauthorized user, if it senses any motion in the interior side of the RAS SR Device. To change the Motion setting, the user must be within Bluetooth range of the RAS SR Device.
+Note: An authorized user\Admin can operate the RAS SR Device using SR Smart App, when the Motion Sensor disables “Smart Button - Exterior.</t>
+    </r>
+  </si>
+  <si>
+    <t>Allows user to delete SR Device from SRP Account. It will require admin credentials.</t>
+  </si>
+  <si>
+    <t>1.6.1.     Serial #</t>
   </si>
   <si>
     <r>
@@ -472,7 +663,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>llows user to add new user device in his/her sr account.It will require admin credentials.</t>
+      <t>llows user to upgrade SR Device with latest firmware from SR Server. It will require admin credentials.</t>
     </r>
   </si>
   <si>
@@ -494,29 +685,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>llows user to add new keyfob device in his/her sr account.It will require admin credentials.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hows the current build version of the app</t>
+      <t>llows user to delete user from sr account. It will require admin credentials.</t>
     </r>
   </si>
   <si>
@@ -538,14 +707,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>llows user to debug and diagnostics issue with SR Device. Use Developer PIN - "123456"</t>
-    </r>
-  </si>
-  <si>
-    <t>Allows user to view battery information. It includes battery type, status, total hours used, voltage and operations performed. It shows current and previous battery both information.</t>
-  </si>
-  <si>
-    <t>Allows user to perform diagnostic of SR Device. It shows SR Device is SR Network or not, Users added in the device, Errors generated on the device.</t>
+      <t>llows user to add new user device in his/her sr account. It will require admin credentials.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -566,16 +729,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>llows user to send log file to developer so user's issue will be identified easily and will be resolved.</t>
-    </r>
-  </si>
-  <si>
-    <t>Allows user to configure camera settings. User needs to select  Camera Type(Foscom or Dlink), Camera Model(FI8910W or FI8918W), Host Name, Port Name, Username and Password.</t>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
+      <t>llows user to add new keyfob device in his/her sr account. It will require admin credentials.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -584,7 +741,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>llows user to clear or dele</t>
+      <t>A</t>
     </r>
     <r>
       <rPr>
@@ -594,149 +751,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>e device log saved in mobile device.</t>
-    </r>
-  </si>
-  <si>
-    <t>Allows user to view information about new features added, enhancements and bugs fixed in the latest version.</t>
-  </si>
-  <si>
-    <t>1.1.1.     Motion Sensor</t>
-  </si>
-  <si>
-    <t>1.1.2.     Exterior Button</t>
-  </si>
-  <si>
-    <t>1.2.3.     Auto Connect</t>
-  </si>
-  <si>
-    <t>1.2.4.     Proximity Security</t>
-  </si>
-  <si>
-    <t>1.2.5.     Notification</t>
-  </si>
-  <si>
-    <t>1.2.6.     User PIN</t>
-  </si>
-  <si>
-    <t>1.2.7.     Set User PIN</t>
-  </si>
-  <si>
-    <t>1.2.8.     Sound Notification</t>
-  </si>
-  <si>
-    <t>1.2.9.     Sound Details</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Allows the user </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to enable or disable proximity security feature of RAS SR device. When user’s smartphone and RAS SR device are within radius of up to 5 feet, it triggers an action/operation and notification event automatically. The remote proximity feature is available for smartphone equipped with BLE Device only.</t>
-    </r>
-  </si>
-  <si>
-    <t>Allows user to enable or disable motion sensor feature of RAS SR device.When Motion is detected, it disables usage of “Smart Button - Exterior” by any authorized\unauthorized user, if it senses any motion in the interior side of the RAS SR Device. To change the Motion setting, the user must be within Bluetooth range of the RAS SR Device.
-Note: An authorized user\Admin can operate the RAS SR Device using SR Smart App, when the Motion Sensor disables “Smart Button - Exterior.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Allows </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>user to enable or disable motion sensor feature of RAS SR device.When Motion is detected, it disables usage of “Smart Button - Exterior” by any authorized\unauthorized user, if it senses any motion in the interior side of the RAS SR Device. To change the Motion setting, the user must be within Bluetooth range of the RAS SR Device.
-Note: An authorized user\Admin can operate the RAS SR Device using SR Smart App, when the Motion Sensor disables “Smart Button - Exterior.</t>
-    </r>
-  </si>
-  <si>
-    <t>Allows the user to enable or disable auto connect feature of RAS SR device. When user’s smartphone enters the range or proximity of RAS SR Device, it will automatically connect with RAS SR Device.</t>
-  </si>
-  <si>
-    <t>1.1.     SR Smart App Settings</t>
-  </si>
-  <si>
-    <t>1.1.1.     SR Device Name</t>
-  </si>
-  <si>
-    <t>1.1.2.     Set Location</t>
-  </si>
-  <si>
-    <t>1.1.3.     Notification</t>
-  </si>
-  <si>
-    <t>1.1.4.     User PIN</t>
-  </si>
-  <si>
-    <t>1.1.5.     Set User PIN</t>
-  </si>
-  <si>
-    <t>1.1.6.     Sound Notification</t>
-  </si>
-  <si>
-    <t>1.1.7.     Sound Details</t>
-  </si>
-  <si>
-    <t>1.2.     Audit Trail</t>
-  </si>
-  <si>
-    <t>1.3.     Delete SR Device</t>
-  </si>
-  <si>
-    <t>1.4.     Login/Logout</t>
-  </si>
-  <si>
-    <t>1.5.     About SR Device</t>
-  </si>
-  <si>
-    <t>1.5.1.     Serail #</t>
-  </si>
-  <si>
-    <t>1.5.2.     Manufacturer</t>
-  </si>
-  <si>
-    <t>1.5.3.     Model #</t>
-  </si>
-  <si>
-    <t>1.5.4.     Hardware Revision</t>
-  </si>
-  <si>
-    <t>1.5.5.     Software Revision</t>
-  </si>
-  <si>
-    <t>1.5.6.     Firmware Upgrade</t>
-  </si>
-  <si>
-    <t>4.5.2.     Device Diagnostics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial Draft with SR Keeler 3.0 menu options </t>
-  </si>
-  <si>
-    <t>Added SR RAS 2.0 and GDO menu options. Version control detail and format of the document is changed</t>
+      <t>llows user to view full information about various SR Products. How to use, installation process, FAQs, Error Codes etc.</t>
+    </r>
+  </si>
+  <si>
+    <t>1.5.1.     Serial #</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1123,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1187,6 +1206,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="164">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1801,8 +1823,8 @@
   </sheetPr>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1817,7 +1839,7 @@
     <row r="1" spans="1:6" s="12" customFormat="1" ht="19.5" customHeight="1">
       <c r="A1" s="11"/>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>0</v>
@@ -1832,125 +1854,125 @@
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1">
       <c r="B4" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
       <c r="B6" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="48.75" customHeight="1">
       <c r="B7" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.25" customHeight="1">
       <c r="B8" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.25" customHeight="1">
       <c r="B9" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
       <c r="B10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="35.25" customHeight="1">
       <c r="B16" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="19.5" customHeight="1">
       <c r="B17" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>77</v>
+        <v>50</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="2:3" s="13" customFormat="1" ht="30">
       <c r="B18" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>5</v>
@@ -1958,13 +1980,13 @@
     </row>
     <row r="19" spans="2:3" s="13" customFormat="1">
       <c r="B19" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19" s="16"/>
     </row>
     <row r="20" spans="2:3" s="13" customFormat="1">
       <c r="B20" s="7" t="s">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>6</v>
@@ -1972,7 +1994,7 @@
     </row>
     <row r="21" spans="2:3" s="13" customFormat="1">
       <c r="B21" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>1</v>
@@ -1980,7 +2002,7 @@
     </row>
     <row r="22" spans="2:3" s="13" customFormat="1">
       <c r="B22" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>7</v>
@@ -1988,7 +2010,7 @@
     </row>
     <row r="23" spans="2:3" s="13" customFormat="1">
       <c r="B23" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>2</v>
@@ -1996,7 +2018,7 @@
     </row>
     <row r="24" spans="2:3" s="13" customFormat="1">
       <c r="B24" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>3</v>
@@ -2004,10 +2026,10 @@
     </row>
     <row r="25" spans="2:3" s="13" customFormat="1">
       <c r="B25" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>86</v>
+        <v>26</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="2:3" s="13" customFormat="1">
@@ -2016,32 +2038,32 @@
     </row>
     <row r="27" spans="2:3" s="13" customFormat="1">
       <c r="B27" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" s="17"/>
     </row>
     <row r="28" spans="2:3" s="13" customFormat="1">
       <c r="B28" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="2:3" s="13" customFormat="1">
       <c r="B29" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="2:3" s="13" customFormat="1">
       <c r="B30" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="2:3" s="13" customFormat="1">
@@ -2050,21 +2072,21 @@
     </row>
     <row r="32" spans="2:3" s="13" customFormat="1">
       <c r="B32" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C32" s="17"/>
     </row>
     <row r="33" spans="2:3" s="13" customFormat="1">
       <c r="B33" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="2:3" s="13" customFormat="1">
       <c r="B34" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>9</v>
@@ -2072,7 +2094,7 @@
     </row>
     <row r="35" spans="2:3" s="13" customFormat="1">
       <c r="B35" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>8</v>
@@ -2080,7 +2102,7 @@
     </row>
     <row r="36" spans="2:3" s="13" customFormat="1">
       <c r="B36" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>11</v>
@@ -2088,7 +2110,7 @@
     </row>
     <row r="37" spans="2:3" s="13" customFormat="1">
       <c r="B37" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>10</v>
@@ -2096,7 +2118,7 @@
     </row>
     <row r="38" spans="2:3" s="13" customFormat="1">
       <c r="B38" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>12</v>
@@ -2104,26 +2126,26 @@
     </row>
     <row r="39" spans="2:3" s="13" customFormat="1">
       <c r="B39" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>91</v>
+        <v>32</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="2:3" s="13" customFormat="1">
       <c r="B40" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>92</v>
+        <v>59</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="2:3" s="13" customFormat="1">
       <c r="B41" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>93</v>
+        <v>60</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="2:3" s="13" customFormat="1">
@@ -2132,29 +2154,29 @@
     </row>
     <row r="43" spans="2:3" s="13" customFormat="1">
       <c r="B43" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C43" s="17"/>
     </row>
     <row r="44" spans="2:3" s="13" customFormat="1">
       <c r="B44" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>13</v>
+        <v>37</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="2:3" s="13" customFormat="1">
       <c r="B45" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="2:3" s="13" customFormat="1">
       <c r="B46" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C46" s="16" t="s">
         <v>4</v>
@@ -2162,66 +2184,66 @@
     </row>
     <row r="47" spans="2:3" s="13" customFormat="1">
       <c r="B47" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="2:3" s="13" customFormat="1" ht="20.25" customHeight="1">
       <c r="B48" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="2:3" s="13" customFormat="1">
       <c r="B49" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="2:3" s="13" customFormat="1" ht="30">
       <c r="B50" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="2:3" s="13" customFormat="1" ht="30">
       <c r="B51" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="2:3" s="13" customFormat="1" ht="35.25" customHeight="1">
       <c r="B52" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="2:3" s="13" customFormat="1" ht="18.75" customHeight="1">
       <c r="B53" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="2:3" s="13" customFormat="1" ht="18.75" customHeight="1">
       <c r="B54" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="2:3" s="13" customFormat="1"/>
@@ -2284,8 +2306,8 @@
   </sheetPr>
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2300,7 +2322,7 @@
     <row r="1" spans="1:6" s="12" customFormat="1" ht="19.5" customHeight="1">
       <c r="A1" s="11"/>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>0</v>
@@ -2315,141 +2337,141 @@
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1">
       <c r="B4" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60">
       <c r="B5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>112</v>
+        <v>95</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="60">
       <c r="B6" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>113</v>
+        <v>96</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="48.75" customHeight="1">
       <c r="B7" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.25" customHeight="1">
       <c r="B8" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.25" customHeight="1">
       <c r="B9" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
       <c r="B10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30">
       <c r="B11" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45">
       <c r="B12" s="7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="7" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="35.25" customHeight="1">
       <c r="B18" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="2:3" s="13" customFormat="1" ht="19.5" customHeight="1">
       <c r="B19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>77</v>
+        <v>50</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="2:3" s="13" customFormat="1" ht="30">
       <c r="B20" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>5</v>
@@ -2457,13 +2479,13 @@
     </row>
     <row r="21" spans="2:3" s="13" customFormat="1">
       <c r="B21" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C21" s="16"/>
     </row>
     <row r="22" spans="2:3" s="13" customFormat="1">
       <c r="B22" s="7" t="s">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>6</v>
@@ -2471,7 +2493,7 @@
     </row>
     <row r="23" spans="2:3" s="13" customFormat="1">
       <c r="B23" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>1</v>
@@ -2479,7 +2501,7 @@
     </row>
     <row r="24" spans="2:3" s="13" customFormat="1">
       <c r="B24" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>7</v>
@@ -2487,7 +2509,7 @@
     </row>
     <row r="25" spans="2:3" s="13" customFormat="1">
       <c r="B25" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>2</v>
@@ -2495,7 +2517,7 @@
     </row>
     <row r="26" spans="2:3" s="13" customFormat="1">
       <c r="B26" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>3</v>
@@ -2503,10 +2525,10 @@
     </row>
     <row r="27" spans="2:3" s="13" customFormat="1">
       <c r="B27" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>86</v>
+        <v>26</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="2:3" s="13" customFormat="1">
@@ -2515,32 +2537,32 @@
     </row>
     <row r="29" spans="2:3" s="13" customFormat="1">
       <c r="B29" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C29" s="17"/>
     </row>
     <row r="30" spans="2:3" s="13" customFormat="1">
       <c r="B30" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="2:3" s="13" customFormat="1">
       <c r="B31" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="2:3" s="13" customFormat="1">
       <c r="B32" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="2:3" s="13" customFormat="1">
@@ -2549,21 +2571,21 @@
     </row>
     <row r="34" spans="2:3" s="13" customFormat="1">
       <c r="B34" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C34" s="17"/>
     </row>
     <row r="35" spans="2:3" s="13" customFormat="1">
       <c r="B35" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="2:3" s="13" customFormat="1">
       <c r="B36" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>9</v>
@@ -2571,7 +2593,7 @@
     </row>
     <row r="37" spans="2:3" s="13" customFormat="1">
       <c r="B37" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>8</v>
@@ -2579,7 +2601,7 @@
     </row>
     <row r="38" spans="2:3" s="13" customFormat="1">
       <c r="B38" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>11</v>
@@ -2587,7 +2609,7 @@
     </row>
     <row r="39" spans="2:3" s="13" customFormat="1">
       <c r="B39" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>10</v>
@@ -2595,7 +2617,7 @@
     </row>
     <row r="40" spans="2:3" s="13" customFormat="1">
       <c r="B40" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>12</v>
@@ -2603,26 +2625,26 @@
     </row>
     <row r="41" spans="2:3" s="13" customFormat="1">
       <c r="B41" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>91</v>
+        <v>32</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="2:3" s="13" customFormat="1">
       <c r="B42" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>92</v>
+        <v>59</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="2:3" s="13" customFormat="1">
       <c r="B43" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="26" t="s">
-        <v>93</v>
+        <v>60</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="2:3" s="13" customFormat="1">
@@ -2631,29 +2653,29 @@
     </row>
     <row r="45" spans="2:3" s="13" customFormat="1">
       <c r="B45" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C45" s="17"/>
     </row>
     <row r="46" spans="2:3" s="13" customFormat="1">
       <c r="B46" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>13</v>
+        <v>37</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="2:3" s="13" customFormat="1">
       <c r="B47" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="2:3" s="13" customFormat="1">
       <c r="B48" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C48" s="16" t="s">
         <v>4</v>
@@ -2661,66 +2683,66 @@
     </row>
     <row r="49" spans="2:3" s="13" customFormat="1">
       <c r="B49" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="2:3" s="13" customFormat="1" ht="20.25" customHeight="1">
       <c r="B50" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="2:3" s="13" customFormat="1">
       <c r="B51" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="2:3" s="13" customFormat="1" ht="30">
       <c r="B52" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="2:3" s="13" customFormat="1" ht="30">
       <c r="B53" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="2:3" s="13" customFormat="1" ht="35.25" customHeight="1">
       <c r="B54" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="2:3" s="13" customFormat="1" ht="18.75" customHeight="1">
       <c r="B55" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="2:3" s="13" customFormat="1" ht="18.75" customHeight="1">
       <c r="B56" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="2:3" s="13" customFormat="1"/>
@@ -2783,8 +2805,8 @@
   </sheetPr>
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2799,7 +2821,7 @@
     <row r="1" spans="1:6" s="12" customFormat="1" ht="19.5" customHeight="1">
       <c r="A1" s="11"/>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>0</v>
@@ -2814,93 +2836,93 @@
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="20.25" customHeight="1">
       <c r="B4" s="6" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1">
       <c r="B5" s="7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
       <c r="B6" s="7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="7" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="7" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="35.25" customHeight="1">
       <c r="B12" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="13" customFormat="1" ht="19.5" customHeight="1">
       <c r="B13" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>77</v>
+        <v>115</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="13" customFormat="1" ht="30">
       <c r="B14" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>5</v>
@@ -2908,13 +2930,13 @@
     </row>
     <row r="15" spans="1:6" s="13" customFormat="1">
       <c r="B15" s="6" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:6" s="13" customFormat="1">
       <c r="B16" s="7" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>6</v>
@@ -2922,7 +2944,7 @@
     </row>
     <row r="17" spans="2:3" s="13" customFormat="1">
       <c r="B17" s="7" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>1</v>
@@ -2930,7 +2952,7 @@
     </row>
     <row r="18" spans="2:3" s="13" customFormat="1">
       <c r="B18" s="7" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>7</v>
@@ -2938,7 +2960,7 @@
     </row>
     <row r="19" spans="2:3" s="13" customFormat="1">
       <c r="B19" s="7" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>2</v>
@@ -2946,7 +2968,7 @@
     </row>
     <row r="20" spans="2:3" s="13" customFormat="1">
       <c r="B20" s="7" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>3</v>
@@ -2954,10 +2976,10 @@
     </row>
     <row r="21" spans="2:3" s="13" customFormat="1">
       <c r="B21" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>86</v>
+        <v>122</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="2:3" s="13" customFormat="1">
@@ -2966,32 +2988,32 @@
     </row>
     <row r="23" spans="2:3" s="13" customFormat="1">
       <c r="B23" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23" s="17"/>
     </row>
     <row r="24" spans="2:3" s="13" customFormat="1">
       <c r="B24" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="2:3" s="13" customFormat="1">
       <c r="B25" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="2:3" s="13" customFormat="1">
       <c r="B26" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="2:3" s="13" customFormat="1">
@@ -3000,21 +3022,21 @@
     </row>
     <row r="28" spans="2:3" s="13" customFormat="1">
       <c r="B28" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C28" s="17"/>
     </row>
     <row r="29" spans="2:3" s="13" customFormat="1">
       <c r="B29" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="2:3" s="13" customFormat="1">
       <c r="B30" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>9</v>
@@ -3022,7 +3044,7 @@
     </row>
     <row r="31" spans="2:3" s="13" customFormat="1">
       <c r="B31" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>8</v>
@@ -3030,7 +3052,7 @@
     </row>
     <row r="32" spans="2:3" s="13" customFormat="1">
       <c r="B32" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>11</v>
@@ -3038,7 +3060,7 @@
     </row>
     <row r="33" spans="2:3" s="13" customFormat="1">
       <c r="B33" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>10</v>
@@ -3046,7 +3068,7 @@
     </row>
     <row r="34" spans="2:3" s="13" customFormat="1">
       <c r="B34" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>12</v>
@@ -3054,26 +3076,26 @@
     </row>
     <row r="35" spans="2:3" s="13" customFormat="1">
       <c r="B35" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>91</v>
+        <v>32</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="2:3" s="13" customFormat="1">
       <c r="B36" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>92</v>
+        <v>59</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="2:3" s="13" customFormat="1">
       <c r="B37" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>93</v>
+        <v>60</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="2:3" s="13" customFormat="1">
@@ -3082,29 +3104,29 @@
     </row>
     <row r="39" spans="2:3" s="13" customFormat="1">
       <c r="B39" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C39" s="17"/>
     </row>
     <row r="40" spans="2:3" s="13" customFormat="1">
       <c r="B40" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>13</v>
+        <v>37</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="2:3" s="13" customFormat="1">
       <c r="B41" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="2:3" s="13" customFormat="1">
       <c r="B42" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>4</v>
@@ -3112,58 +3134,58 @@
     </row>
     <row r="43" spans="2:3" s="13" customFormat="1">
       <c r="B43" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="2:3" s="13" customFormat="1" ht="20.25" customHeight="1">
       <c r="B44" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="2:3" s="13" customFormat="1">
       <c r="B45" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="2:3" s="13" customFormat="1" ht="30">
       <c r="B46" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="2:3" s="13" customFormat="1" ht="35.25" customHeight="1">
       <c r="B47" s="9" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="2:3" s="13" customFormat="1" ht="18.75" customHeight="1">
       <c r="B48" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="2:3" s="13" customFormat="1" ht="18.75" customHeight="1">
       <c r="B49" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="2:3" s="13" customFormat="1"/>
@@ -3223,8 +3245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3253,16 +3275,16 @@
     <row r="4" spans="2:7" ht="28" customHeight="1">
       <c r="B4" s="22"/>
       <c r="C4" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G4" s="22"/>
     </row>
@@ -3277,32 +3299,32 @@
     <row r="6" spans="2:7" ht="28" customHeight="1">
       <c r="B6" s="22"/>
       <c r="C6" s="24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D6" s="25">
         <v>42249</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G6" s="22"/>
     </row>
     <row r="7" spans="2:7" ht="28" customHeight="1">
       <c r="B7" s="22"/>
       <c r="C7" s="24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D7" s="25">
         <v>42264</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G7" s="22"/>
     </row>

--- a/User Manual/MENU_SRSMART_APPS_01.01.02.xlsx
+++ b/User Manual/MENU_SRSMART_APPS_01.01.02.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="25600" windowHeight="14660" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SR Keeler V3.0" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="140">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -232,9 +232,6 @@
   </si>
   <si>
     <t>Allows user to enable or disable notification when user moves out of range from SR device and has left the door unlocked.</t>
-  </si>
-  <si>
-    <t>Allows user to set user PIN. Once user PIN is set, it will prompt user to enter PIN each time the user tries to operate Keeler SR Smart device.</t>
   </si>
   <si>
     <t>Allows user to modify user PIN(Default PIN is "1234"). User can modify the existing PIN with new PIN.</t>
@@ -423,28 +420,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>llows user to debug and diagnostics issue with SR Device. Use Developer PIN - "123456"</t>
-    </r>
-  </si>
-  <si>
     <t>Allows user to view battery information. It includes battery type, status, total hours used, voltage and operations performed. It shows current and previous battery both information.</t>
   </si>
   <si>
@@ -757,14 +732,48 @@
   <si>
     <t>1.5.1.     Serial #</t>
   </si>
+  <si>
+    <t>Allows user to view operations performed to RAS SR device. It will show last 10 operations performed by user. Admin login information is required to view this page.</t>
+  </si>
+  <si>
+    <t>Allows user to view operations performed to GDO SR device. It will show last 10 operations performed by user. Admin login information is required to view this page.</t>
+  </si>
+  <si>
+    <t>Allows user to set user PIN. Once user PIN is set, it will prompt user to enter PIN each time the user tries to operate GDO SR device.</t>
+  </si>
+  <si>
+    <t>Allows user to set user PIN. Once user PIN is set, it will prompt user to enter PIN each time the user tries to operate RAS SR device.</t>
+  </si>
+  <si>
+    <t>Allows user to set user PIN. Once user PIN is set, it will prompt user to enter PIN each time the user tries to operate Keeler SR device.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Allows user to debug and diagnose issue with SR Device. Use Developer PIN - "123456"</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -957,260 +966,266 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="164">
+  <cellStyleXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="159" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="159" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="164">
+  <cellStyles count="167">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1294,6 +1309,9 @@
     <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1823,8 +1841,8 @@
   </sheetPr>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1884,7 +1902,7 @@
     </row>
     <row r="7" spans="1:6" ht="48.75" customHeight="1">
       <c r="B7" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>65</v>
@@ -1926,8 +1944,8 @@
       <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>70</v>
+      <c r="C12" s="30" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1935,7 +1953,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1943,7 +1961,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1951,7 +1969,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="35.25" customHeight="1">
@@ -1959,7 +1977,7 @@
         <v>49</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="19.5" customHeight="1">
@@ -1967,7 +1985,7 @@
         <v>50</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="2:3" s="13" customFormat="1" ht="30">
@@ -1986,7 +2004,7 @@
     </row>
     <row r="20" spans="2:3" s="13" customFormat="1">
       <c r="B20" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>6</v>
@@ -2029,7 +2047,7 @@
         <v>26</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="2:3" s="13" customFormat="1">
@@ -2047,7 +2065,7 @@
         <v>54</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="2:3" s="13" customFormat="1">
@@ -2055,7 +2073,7 @@
         <v>55</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="2:3" s="13" customFormat="1">
@@ -2063,7 +2081,7 @@
         <v>56</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="2:3" s="13" customFormat="1">
@@ -2081,7 +2099,7 @@
         <v>58</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="2:3" s="13" customFormat="1">
@@ -2129,7 +2147,7 @@
         <v>32</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="2:3" s="13" customFormat="1">
@@ -2137,7 +2155,7 @@
         <v>59</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="2:3" s="13" customFormat="1">
@@ -2145,7 +2163,7 @@
         <v>60</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="2:3" s="13" customFormat="1">
@@ -2163,7 +2181,7 @@
         <v>37</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="2:3" s="13" customFormat="1">
@@ -2187,7 +2205,7 @@
         <v>39</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="2:3" s="13" customFormat="1" ht="20.25" customHeight="1">
@@ -2195,15 +2213,15 @@
         <v>40</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="2:3" s="13" customFormat="1">
       <c r="B49" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="26" t="s">
-        <v>88</v>
+      <c r="C49" s="31" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="2:3" s="13" customFormat="1" ht="30">
@@ -2211,7 +2229,7 @@
         <v>34</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="2:3" s="13" customFormat="1" ht="30">
@@ -2219,7 +2237,7 @@
         <v>35</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="2:3" s="13" customFormat="1" ht="35.25" customHeight="1">
@@ -2227,7 +2245,7 @@
         <v>36</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="2:3" s="13" customFormat="1" ht="18.75" customHeight="1">
@@ -2235,7 +2253,7 @@
         <v>42</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="2:3" s="13" customFormat="1" ht="18.75" customHeight="1">
@@ -2243,7 +2261,7 @@
         <v>43</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="2:3" s="13" customFormat="1"/>
@@ -2306,8 +2324,8 @@
   </sheetPr>
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54:C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2351,23 +2369,23 @@
     </row>
     <row r="5" spans="1:6" ht="60">
       <c r="B5" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="60">
       <c r="B6" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="48.75" customHeight="1">
       <c r="B7" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>65</v>
@@ -2399,23 +2417,23 @@
     </row>
     <row r="11" spans="1:6" ht="30">
       <c r="B11" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45">
       <c r="B12" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>69</v>
@@ -2423,34 +2441,34 @@
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>70</v>
+        <v>98</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="35.25" customHeight="1">
@@ -2458,7 +2476,7 @@
         <v>49</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="2:3" s="13" customFormat="1" ht="19.5" customHeight="1">
@@ -2466,7 +2484,7 @@
         <v>50</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="2:3" s="13" customFormat="1" ht="30">
@@ -2485,7 +2503,7 @@
     </row>
     <row r="22" spans="2:3" s="13" customFormat="1">
       <c r="B22" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>6</v>
@@ -2528,7 +2546,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="2:3" s="13" customFormat="1">
@@ -2546,7 +2564,7 @@
         <v>54</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="2:3" s="13" customFormat="1">
@@ -2554,7 +2572,7 @@
         <v>55</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="2:3" s="13" customFormat="1">
@@ -2562,7 +2580,7 @@
         <v>56</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="2:3" s="13" customFormat="1">
@@ -2580,7 +2598,7 @@
         <v>58</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="2:3" s="13" customFormat="1">
@@ -2628,7 +2646,7 @@
         <v>32</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="2:3" s="13" customFormat="1">
@@ -2636,7 +2654,7 @@
         <v>59</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="2:3" s="13" customFormat="1">
@@ -2644,7 +2662,7 @@
         <v>60</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="2:3" s="13" customFormat="1">
@@ -2662,7 +2680,7 @@
         <v>37</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="2:3" s="13" customFormat="1">
@@ -2686,7 +2704,7 @@
         <v>39</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="2:3" s="13" customFormat="1" ht="20.25" customHeight="1">
@@ -2694,15 +2712,15 @@
         <v>40</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="2:3" s="13" customFormat="1">
       <c r="B51" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="26" t="s">
-        <v>88</v>
+      <c r="C51" s="31" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="2:3" s="13" customFormat="1" ht="30">
@@ -2710,7 +2728,7 @@
         <v>34</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="2:3" s="13" customFormat="1" ht="30">
@@ -2718,7 +2736,7 @@
         <v>35</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="2:3" s="13" customFormat="1" ht="35.25" customHeight="1">
@@ -2726,7 +2744,7 @@
         <v>36</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="2:3" s="13" customFormat="1" ht="18.75" customHeight="1">
@@ -2734,7 +2752,7 @@
         <v>42</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="2:3" s="13" customFormat="1" ht="18.75" customHeight="1">
@@ -2742,7 +2760,7 @@
         <v>43</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="2:3" s="13" customFormat="1"/>
@@ -2805,8 +2823,8 @@
   </sheetPr>
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2842,7 +2860,7 @@
     </row>
     <row r="4" spans="1:6" ht="20.25" customHeight="1">
       <c r="B4" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>66</v>
@@ -2850,7 +2868,7 @@
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1">
       <c r="B5" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>67</v>
@@ -2858,7 +2876,7 @@
     </row>
     <row r="6" spans="1:6" ht="30">
       <c r="B6" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>68</v>
@@ -2866,7 +2884,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>69</v>
@@ -2874,55 +2892,55 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>70</v>
+        <v>108</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="35.25" customHeight="1">
       <c r="B12" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="13" customFormat="1" ht="19.5" customHeight="1">
       <c r="B13" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="13" customFormat="1" ht="30">
       <c r="B14" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>5</v>
@@ -2930,13 +2948,13 @@
     </row>
     <row r="15" spans="1:6" s="13" customFormat="1">
       <c r="B15" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:6" s="13" customFormat="1">
       <c r="B16" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>6</v>
@@ -2944,7 +2962,7 @@
     </row>
     <row r="17" spans="2:3" s="13" customFormat="1">
       <c r="B17" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>1</v>
@@ -2952,7 +2970,7 @@
     </row>
     <row r="18" spans="2:3" s="13" customFormat="1">
       <c r="B18" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>7</v>
@@ -2960,7 +2978,7 @@
     </row>
     <row r="19" spans="2:3" s="13" customFormat="1">
       <c r="B19" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>2</v>
@@ -2968,7 +2986,7 @@
     </row>
     <row r="20" spans="2:3" s="13" customFormat="1">
       <c r="B20" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>3</v>
@@ -2976,10 +2994,10 @@
     </row>
     <row r="21" spans="2:3" s="13" customFormat="1">
       <c r="B21" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="2:3" s="13" customFormat="1">
@@ -2997,7 +3015,7 @@
         <v>54</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="2:3" s="13" customFormat="1">
@@ -3005,7 +3023,7 @@
         <v>55</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="2:3" s="13" customFormat="1">
@@ -3013,7 +3031,7 @@
         <v>56</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="2:3" s="13" customFormat="1">
@@ -3031,7 +3049,7 @@
         <v>58</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="2:3" s="13" customFormat="1">
@@ -3079,7 +3097,7 @@
         <v>32</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="2:3" s="13" customFormat="1">
@@ -3087,7 +3105,7 @@
         <v>59</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="2:3" s="13" customFormat="1">
@@ -3095,7 +3113,7 @@
         <v>60</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="2:3" s="13" customFormat="1">
@@ -3113,7 +3131,7 @@
         <v>37</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="2:3" s="13" customFormat="1">
@@ -3137,7 +3155,7 @@
         <v>39</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="2:3" s="13" customFormat="1" ht="20.25" customHeight="1">
@@ -3145,15 +3163,15 @@
         <v>40</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="2:3" s="13" customFormat="1">
       <c r="B45" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="26" t="s">
-        <v>88</v>
+      <c r="C45" s="31" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="2:3" s="13" customFormat="1" ht="30">
@@ -3161,15 +3179,15 @@
         <v>34</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="2:3" s="13" customFormat="1" ht="35.25" customHeight="1">
       <c r="B47" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="2:3" s="13" customFormat="1" ht="18.75" customHeight="1">
@@ -3177,7 +3195,7 @@
         <v>42</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="2:3" s="13" customFormat="1" ht="18.75" customHeight="1">
@@ -3185,7 +3203,7 @@
         <v>43</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="2:3" s="13" customFormat="1"/>
@@ -3245,7 +3263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -3275,16 +3293,16 @@
     <row r="4" spans="2:7" ht="28" customHeight="1">
       <c r="B4" s="22"/>
       <c r="C4" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="E4" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="23" t="s">
-        <v>77</v>
-      </c>
       <c r="F4" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G4" s="22"/>
     </row>
@@ -3299,32 +3317,32 @@
     <row r="6" spans="2:7" ht="28" customHeight="1">
       <c r="B6" s="22"/>
       <c r="C6" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" s="25">
         <v>42249</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" s="22"/>
     </row>
     <row r="7" spans="2:7" ht="28" customHeight="1">
       <c r="B7" s="22"/>
       <c r="C7" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" s="25">
         <v>42264</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7" s="22"/>
     </row>
